--- a/Database_Map.xlsx
+++ b/Database_Map.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Map" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -27,52 +27,42 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8999908444471572"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -85,24 +75,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -457,59 +438,59 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Sub-Categories</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Code</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>MBA Average</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Fall 21</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Fall 22</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Fall 23</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Spring 22</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Winter 23</t>
         </is>
       </c>
-      <c r="I1" s="10" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Spring 23</t>
         </is>
       </c>
-      <c r="J1" s="10" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Spring 24</t>
         </is>
       </c>
-      <c r="K1" s="10" t="inlineStr">
-        <is>
-          <t>Fall 55</t>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>fall</t>
         </is>
       </c>
     </row>

--- a/Database_Map.xlsx
+++ b/Database_Map.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2280" yWindow="828" windowWidth="26880" windowHeight="15204" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13476" yWindow="612" windowWidth="16932" windowHeight="15204" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Database" sheetId="1" state="visible" r:id="rId1"/>
@@ -2423,7 +2423,7 @@
   </sheetPr>
   <dimension ref="A1:F383"/>
   <sheetViews>
-    <sheetView topLeftCell="A310" workbookViewId="0">
+    <sheetView topLeftCell="A238" workbookViewId="0">
       <selection activeCell="D339" sqref="D339"/>
     </sheetView>
   </sheetViews>

--- a/Database_Map.xlsx
+++ b/Database_Map.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13476" yWindow="612" windowWidth="16932" windowHeight="15204" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4272" yWindow="1356" windowWidth="19380" windowHeight="15204" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Database" sheetId="1" state="visible" r:id="rId1"/>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.42</v>
+        <v>4.49</v>
       </c>
       <c r="D2" t="n">
         <v>4.48</v>
@@ -541,7 +541,7 @@
         <v>4.42</v>
       </c>
       <c r="K2" t="n">
-        <v>4.05</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.34</v>
+        <v>5.56</v>
       </c>
       <c r="D3" t="n">
         <v>5.66</v>
@@ -580,7 +580,7 @@
         <v>5.57</v>
       </c>
       <c r="K3" t="n">
-        <v>3.78</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="4">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5.22</v>
+        <v>5.38</v>
       </c>
       <c r="D4" t="n">
         <v>5.39</v>
@@ -619,7 +619,7 @@
         <v>5.41</v>
       </c>
       <c r="K4" t="n">
-        <v>4.05</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="5">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="D5" t="n">
         <v>4.27</v>
@@ -658,7 +658,7 @@
         <v>4.32</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="6">
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.05</v>
+        <v>5.21</v>
       </c>
       <c r="D6" t="n">
         <v>5.27</v>
@@ -697,7 +697,7 @@
         <v>5.21</v>
       </c>
       <c r="K6" t="n">
-        <v>3.73</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="7">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.9</v>
+        <v>5.04</v>
       </c>
       <c r="D7" t="n">
         <v>5.01</v>
@@ -736,7 +736,7 @@
         <v>5.07</v>
       </c>
       <c r="K7" t="n">
-        <v>3.99</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="8">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="D8" t="n">
         <v>3.51</v>
@@ -775,7 +775,7 @@
         <v>3.46</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="9">
@@ -814,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -853,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D12" t="n">
         <v>0.6899999999999999</v>
@@ -931,7 +931,7 @@
         <v>0.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.11</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="D13" t="n">
         <v>0.42</v>
@@ -970,7 +970,7 @@
         <v>0.34</v>
       </c>
       <c r="K13" t="n">
-        <v>0.82</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="14">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D14" t="n">
         <v>0.54</v>
@@ -1009,7 +1009,7 @@
         <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="15">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.31</v>
+        <v>5.54</v>
       </c>
       <c r="D15" t="n">
         <v>5.59</v>
@@ -1048,7 +1048,7 @@
         <v>5.44</v>
       </c>
       <c r="K15" t="n">
-        <v>3.58</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="16">
@@ -1063,7 +1063,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.79</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>5.02</v>
@@ -1087,7 +1087,7 @@
         <v>4.89</v>
       </c>
       <c r="K16" t="n">
-        <v>3.31</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="17">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.4</v>
+        <v>5.64</v>
       </c>
       <c r="D17" t="n">
         <v>5.72</v>
@@ -1126,7 +1126,7 @@
         <v>5.47</v>
       </c>
       <c r="K17" t="n">
-        <v>3.62</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="18">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5.27</v>
+        <v>5.41</v>
       </c>
       <c r="D18" t="n">
         <v>5.46</v>
@@ -1165,7 +1165,7 @@
         <v>5.3</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="19">
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5.78</v>
+        <v>6.13</v>
       </c>
       <c r="D19" t="n">
         <v>6.18</v>
@@ -1204,7 +1204,7 @@
         <v>6.07</v>
       </c>
       <c r="K19" t="n">
-        <v>3.11</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="20">
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5.44</v>
+        <v>5.62</v>
       </c>
       <c r="D20" t="n">
         <v>5.65</v>
@@ -1243,7 +1243,7 @@
         <v>5.56</v>
       </c>
       <c r="K20" t="n">
-        <v>4.21</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="21">
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.21</v>
+        <v>5.32</v>
       </c>
       <c r="D21" t="n">
         <v>5.39</v>
@@ -1282,7 +1282,7 @@
         <v>5.21</v>
       </c>
       <c r="K21" t="n">
-        <v>4.54</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4.26</v>
+        <v>5.99</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
@@ -1307,7 +1307,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>4.26</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="23">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4.36</v>
+        <v>5.54</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
@@ -1332,7 +1332,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>4.36</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="24">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5.32</v>
+        <v>5.49</v>
       </c>
       <c r="D24" t="n">
         <v>5.52</v>
@@ -1371,7 +1371,7 @@
         <v>5.49</v>
       </c>
       <c r="K24" t="n">
-        <v>4.27</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="25">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4.93</v>
+        <v>5.12</v>
       </c>
       <c r="D25" t="n">
         <v>5.11</v>
@@ -1410,7 +1410,7 @@
         <v>4.87</v>
       </c>
       <c r="K25" t="n">
-        <v>3.69</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="26">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.6</v>
+        <v>5.73</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -1435,7 +1435,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>3.6</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="27">
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3.27</v>
+        <v>5.31</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
@@ -1460,7 +1460,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>3.27</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="28">
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.7</v>
+        <v>5.92</v>
       </c>
       <c r="D28" t="n">
         <v>5.93</v>
@@ -1499,7 +1499,7 @@
         <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>4.22</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="29">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5.86</v>
+        <v>6.1</v>
       </c>
       <c r="D29" t="n">
         <v>6.15</v>
@@ -1538,7 +1538,7 @@
         <v>6.21</v>
       </c>
       <c r="K29" t="n">
-        <v>4.11</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="30">
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5.84</v>
+        <v>6.07</v>
       </c>
       <c r="D30" t="n">
         <v>6.11</v>
@@ -1577,7 +1577,7 @@
         <v>6.07</v>
       </c>
       <c r="K30" t="n">
-        <v>4.22</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="31">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.6</v>
+        <v>5.81</v>
       </c>
       <c r="D31" t="n">
         <v>5.75</v>
@@ -1616,7 +1616,7 @@
         <v>5.87</v>
       </c>
       <c r="K31" t="n">
-        <v>4.11</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="32">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.33</v>
+        <v>5.5</v>
       </c>
       <c r="D32" t="n">
         <v>5.5</v>
@@ -1655,7 +1655,7 @@
         <v>5.67</v>
       </c>
       <c r="K32" t="n">
-        <v>4.22</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="33">
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5.89</v>
+        <v>6.09</v>
       </c>
       <c r="D33" t="n">
         <v>6.15</v>
@@ -1694,7 +1694,7 @@
         <v>6.18</v>
       </c>
       <c r="K33" t="n">
-        <v>4.44</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="34">
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.22</v>
+        <v>5.37</v>
       </c>
       <c r="D34" t="n">
         <v>5.35</v>
@@ -1733,7 +1733,7 @@
         <v>5.41</v>
       </c>
       <c r="K34" t="n">
-        <v>4.25</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="35">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.31</v>
+        <v>5.53</v>
       </c>
       <c r="D35" t="n">
         <v>5.47</v>
@@ -1772,7 +1772,7 @@
         <v>5.68</v>
       </c>
       <c r="K35" t="n">
-        <v>3.83</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="36">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5.66</v>
+        <v>5.83</v>
       </c>
       <c r="D36" t="n">
         <v>5.83</v>
@@ -1811,7 +1811,7 @@
         <v>5.98</v>
       </c>
       <c r="K36" t="n">
-        <v>4.56</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="37">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5.39</v>
+        <v>5.54</v>
       </c>
       <c r="D37" t="n">
         <v>5.49</v>
@@ -1850,7 +1850,7 @@
         <v>5.54</v>
       </c>
       <c r="K37" t="n">
-        <v>4.39</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="38">
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.54</v>
+        <v>4.6</v>
       </c>
       <c r="D38" t="n">
         <v>4.59</v>
@@ -1889,7 +1889,7 @@
         <v>4.57</v>
       </c>
       <c r="K38" t="n">
-        <v>4.22</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="39">
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5.71</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
         <v>6.09</v>
@@ -1928,7 +1928,7 @@
         <v>6.07</v>
       </c>
       <c r="K39" t="n">
-        <v>3.55</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="40">
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5.4</v>
+        <v>5.55</v>
       </c>
       <c r="D40" t="n">
         <v>5.55</v>
@@ -1967,7 +1967,7 @@
         <v>5.42</v>
       </c>
       <c r="K40" t="n">
-        <v>4.32</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="41">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.06</v>
+        <v>2.9</v>
       </c>
       <c r="D41" t="n">
         <v>2.78</v>
@@ -2006,7 +2006,7 @@
         <v>2.92</v>
       </c>
       <c r="K41" t="n">
-        <v>4.21</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="42">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.59</v>
+        <v>3.4</v>
       </c>
       <c r="D42" t="n">
         <v>3.44</v>
@@ -2045,7 +2045,7 @@
         <v>3.69</v>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="43">
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.21</v>
+        <v>1.94</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
@@ -2070,7 +2070,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>3.21</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="44">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.71</v>
+        <v>2.2</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
@@ -2095,7 +2095,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>3.71</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="45">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5.74</v>
+        <v>5.97</v>
       </c>
       <c r="D45" t="n">
         <v>6.04</v>
@@ -2134,7 +2134,7 @@
         <v>6.09</v>
       </c>
       <c r="K45" t="n">
-        <v>3.94</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="46">
@@ -2149,7 +2149,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.56</v>
+        <v>3.66</v>
       </c>
       <c r="D46" t="n">
         <v>3.66</v>
@@ -2173,7 +2173,7 @@
         <v>3.74</v>
       </c>
       <c r="K46" t="n">
-        <v>2.89</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="47">
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.8</v>
+        <v>3.88</v>
       </c>
       <c r="D47" t="n">
         <v>3.81</v>
@@ -2212,7 +2212,7 @@
         <v>3.91</v>
       </c>
       <c r="K47" t="n">
-        <v>3.27</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="48">
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4.04</v>
+        <v>4.2</v>
       </c>
       <c r="D48" t="n">
         <v>4.22</v>
@@ -2251,7 +2251,7 @@
         <v>4.27</v>
       </c>
       <c r="K48" t="n">
-        <v>2.88</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="49">
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.65</v>
+        <v>3.74</v>
       </c>
       <c r="D49" t="n">
         <v>3.72</v>
@@ -2290,7 +2290,7 @@
         <v>3.8</v>
       </c>
       <c r="K49" t="n">
-        <v>3.02</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="50">
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.82</v>
+        <v>3.91</v>
       </c>
       <c r="D50" t="n">
         <v>3.9</v>
@@ -2329,7 +2329,7 @@
         <v>3.95</v>
       </c>
       <c r="K50" t="n">
-        <v>3.19</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="51">
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3.95</v>
+        <v>4.08</v>
       </c>
       <c r="D51" t="n">
         <v>4.07</v>
@@ -2368,7 +2368,7 @@
         <v>4.15</v>
       </c>
       <c r="K51" t="n">
-        <v>3.15</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="52">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3.81</v>
+        <v>3.91</v>
       </c>
       <c r="D52" t="n">
         <v>3.91</v>
@@ -2407,7 +2407,7 @@
         <v>3.96</v>
       </c>
       <c r="K52" t="n">
-        <v>3.17</v>
+        <v>3.96</v>
       </c>
     </row>
   </sheetData>

--- a/Database_Map.xlsx
+++ b/Database_Map.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,21 @@
           <t>test</t>
         </is>
       </c>
+      <c r="L1" s="6" t="inlineStr">
+        <is>
+          <t>Fall 88</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>Fall 77</t>
+        </is>
+      </c>
+      <c r="N1" s="6" t="inlineStr">
+        <is>
+          <t>Fall 25</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -517,7 +532,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.49</v>
+        <v>4.41</v>
       </c>
       <c r="D2" t="n">
         <v>4.48</v>
@@ -543,6 +558,15 @@
       <c r="K2" t="n">
         <v>4.55</v>
       </c>
+      <c r="L2" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -556,7 +580,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.56</v>
+        <v>5.51</v>
       </c>
       <c r="D3" t="n">
         <v>5.66</v>
@@ -582,6 +606,15 @@
       <c r="K3" t="n">
         <v>5.5</v>
       </c>
+      <c r="L3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -595,7 +628,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5.38</v>
+        <v>5.5</v>
       </c>
       <c r="D4" t="n">
         <v>5.39</v>
@@ -621,6 +654,15 @@
       <c r="K4" t="n">
         <v>5.32</v>
       </c>
+      <c r="L4" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.84</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -634,7 +676,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="D5" t="n">
         <v>4.27</v>
@@ -660,6 +702,15 @@
       <c r="K5" t="n">
         <v>4.59</v>
       </c>
+      <c r="L5" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.42</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -673,7 +724,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.21</v>
+        <v>5.25</v>
       </c>
       <c r="D6" t="n">
         <v>5.27</v>
@@ -699,6 +750,15 @@
       <c r="K6" t="n">
         <v>5.02</v>
       </c>
+      <c r="L6" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -712,7 +772,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5.04</v>
+        <v>5.24</v>
       </c>
       <c r="D7" t="n">
         <v>5.01</v>
@@ -738,6 +798,15 @@
       <c r="K7" t="n">
         <v>5.1</v>
       </c>
+      <c r="L7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -751,7 +820,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.49</v>
+        <v>3.52</v>
       </c>
       <c r="D8" t="n">
         <v>3.51</v>
@@ -777,6 +846,15 @@
       <c r="K8" t="n">
         <v>3.38</v>
       </c>
+      <c r="L8" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -790,7 +868,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>5</v>
@@ -816,6 +894,15 @@
       <c r="K9" t="n">
         <v>6</v>
       </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -855,6 +942,15 @@
       <c r="K10" t="n">
         <v>3</v>
       </c>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -894,6 +990,15 @@
       <c r="K11" t="n">
         <v>3</v>
       </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -907,7 +1012,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="D12" t="n">
         <v>0.6899999999999999</v>
@@ -933,6 +1038,15 @@
       <c r="K12" t="n">
         <v>0.66</v>
       </c>
+      <c r="L12" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -946,7 +1060,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="D13" t="n">
         <v>0.42</v>
@@ -972,6 +1086,15 @@
       <c r="K13" t="n">
         <v>0.44</v>
       </c>
+      <c r="L13" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -985,7 +1108,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="D14" t="n">
         <v>0.54</v>
@@ -1011,6 +1134,15 @@
       <c r="K14" t="n">
         <v>0.59</v>
       </c>
+      <c r="L14" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1024,7 +1156,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.54</v>
+        <v>5.46</v>
       </c>
       <c r="D15" t="n">
         <v>5.59</v>
@@ -1050,6 +1182,15 @@
       <c r="K15" t="n">
         <v>5.47</v>
       </c>
+      <c r="L15" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1063,7 +1204,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="D16" t="n">
         <v>5.02</v>
@@ -1089,6 +1230,15 @@
       <c r="K16" t="n">
         <v>4.97</v>
       </c>
+      <c r="L16" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.83</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1102,7 +1252,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.64</v>
+        <v>5.53</v>
       </c>
       <c r="D17" t="n">
         <v>5.72</v>
@@ -1128,6 +1278,15 @@
       <c r="K17" t="n">
         <v>5.56</v>
       </c>
+      <c r="L17" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1141,7 +1300,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5.41</v>
+        <v>5.24</v>
       </c>
       <c r="D18" t="n">
         <v>5.46</v>
@@ -1167,6 +1326,15 @@
       <c r="K18" t="n">
         <v>5.42</v>
       </c>
+      <c r="L18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1206,6 +1374,15 @@
       <c r="K19" t="n">
         <v>5.92</v>
       </c>
+      <c r="L19" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="M19" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1219,7 +1396,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5.62</v>
+        <v>5.66</v>
       </c>
       <c r="D20" t="n">
         <v>5.65</v>
@@ -1245,6 +1422,15 @@
       <c r="K20" t="n">
         <v>5.63</v>
       </c>
+      <c r="L20" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.75</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1258,7 +1444,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.32</v>
+        <v>5.29</v>
       </c>
       <c r="D21" t="n">
         <v>5.39</v>
@@ -1284,6 +1470,15 @@
       <c r="K21" t="n">
         <v>5.41</v>
       </c>
+      <c r="L21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1297,7 +1492,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
@@ -1309,6 +1504,15 @@
       <c r="K22" t="n">
         <v>5.99</v>
       </c>
+      <c r="L22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>6</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1322,7 +1526,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5.54</v>
+        <v>5.48</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
@@ -1334,6 +1538,15 @@
       <c r="K23" t="n">
         <v>5.54</v>
       </c>
+      <c r="L23" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5.46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1347,7 +1560,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5.49</v>
+        <v>5.51</v>
       </c>
       <c r="D24" t="n">
         <v>5.52</v>
@@ -1373,6 +1586,15 @@
       <c r="K24" t="n">
         <v>5.61</v>
       </c>
+      <c r="L24" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5.58</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1386,7 +1608,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5.12</v>
+        <v>5.19</v>
       </c>
       <c r="D25" t="n">
         <v>5.11</v>
@@ -1412,6 +1634,15 @@
       <c r="K25" t="n">
         <v>5.24</v>
       </c>
+      <c r="L25" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.38</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1425,7 +1656,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5.73</v>
+        <v>6.05</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -1437,6 +1668,15 @@
       <c r="K26" t="n">
         <v>5.73</v>
       </c>
+      <c r="L26" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="M26" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6.16</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1450,7 +1690,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5.31</v>
+        <v>5.35</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
@@ -1462,6 +1702,15 @@
       <c r="K27" t="n">
         <v>5.31</v>
       </c>
+      <c r="L27" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5.36</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1475,7 +1724,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.92</v>
+        <v>5.96</v>
       </c>
       <c r="D28" t="n">
         <v>5.93</v>
@@ -1501,6 +1750,15 @@
       <c r="K28" t="n">
         <v>5.91</v>
       </c>
+      <c r="L28" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6.09</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1514,7 +1772,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6.1</v>
+        <v>6.09</v>
       </c>
       <c r="D29" t="n">
         <v>6.15</v>
@@ -1540,6 +1798,15 @@
       <c r="K29" t="n">
         <v>6.03</v>
       </c>
+      <c r="L29" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="M29" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6.07</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1553,7 +1820,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6.07</v>
+        <v>6.11</v>
       </c>
       <c r="D30" t="n">
         <v>6.11</v>
@@ -1579,6 +1846,15 @@
       <c r="K30" t="n">
         <v>6.04</v>
       </c>
+      <c r="L30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1592,7 +1868,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.81</v>
+        <v>5.9</v>
       </c>
       <c r="D31" t="n">
         <v>5.75</v>
@@ -1618,6 +1894,15 @@
       <c r="K31" t="n">
         <v>5.83</v>
       </c>
+      <c r="L31" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="M31" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6.13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1631,7 +1916,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.5</v>
+        <v>5.62</v>
       </c>
       <c r="D32" t="n">
         <v>5.5</v>
@@ -1657,6 +1942,15 @@
       <c r="K32" t="n">
         <v>5.63</v>
       </c>
+      <c r="L32" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.93</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1670,7 +1964,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.09</v>
+        <v>6.1</v>
       </c>
       <c r="D33" t="n">
         <v>6.15</v>
@@ -1696,6 +1990,15 @@
       <c r="K33" t="n">
         <v>6.02</v>
       </c>
+      <c r="L33" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="M33" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1709,7 +2012,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.37</v>
+        <v>5.54</v>
       </c>
       <c r="D34" t="n">
         <v>5.35</v>
@@ -1735,6 +2038,15 @@
       <c r="K34" t="n">
         <v>5.44</v>
       </c>
+      <c r="L34" t="n">
+        <v>6</v>
+      </c>
+      <c r="M34" t="n">
+        <v>6</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1748,7 +2060,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.53</v>
+        <v>5.69</v>
       </c>
       <c r="D35" t="n">
         <v>5.47</v>
@@ -1774,6 +2086,15 @@
       <c r="K35" t="n">
         <v>5.6</v>
       </c>
+      <c r="L35" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="M35" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6.13</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1787,7 +2108,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5.83</v>
+        <v>5.89</v>
       </c>
       <c r="D36" t="n">
         <v>5.83</v>
@@ -1813,6 +2134,15 @@
       <c r="K36" t="n">
         <v>5.88</v>
       </c>
+      <c r="L36" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="M36" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.07</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1826,7 +2156,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5.54</v>
+        <v>5.67</v>
       </c>
       <c r="D37" t="n">
         <v>5.49</v>
@@ -1852,6 +2182,15 @@
       <c r="K37" t="n">
         <v>5.57</v>
       </c>
+      <c r="L37" t="n">
+        <v>6</v>
+      </c>
+      <c r="M37" t="n">
+        <v>6</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1865,7 +2204,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.6</v>
+        <v>4.93</v>
       </c>
       <c r="D38" t="n">
         <v>4.59</v>
@@ -1891,6 +2230,15 @@
       <c r="K38" t="n">
         <v>4.7</v>
       </c>
+      <c r="L38" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1904,7 +2252,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>5.94</v>
       </c>
       <c r="D39" t="n">
         <v>6.09</v>
@@ -1930,6 +2278,15 @@
       <c r="K39" t="n">
         <v>5.84</v>
       </c>
+      <c r="L39" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1943,7 +2300,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5.55</v>
+        <v>5.57</v>
       </c>
       <c r="D40" t="n">
         <v>5.55</v>
@@ -1969,6 +2326,15 @@
       <c r="K40" t="n">
         <v>5.53</v>
       </c>
+      <c r="L40" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5.64</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1982,7 +2348,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.9</v>
+        <v>3.06</v>
       </c>
       <c r="D41" t="n">
         <v>2.78</v>
@@ -2008,6 +2374,15 @@
       <c r="K41" t="n">
         <v>2.97</v>
       </c>
+      <c r="L41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2021,7 +2396,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="D42" t="n">
         <v>3.44</v>
@@ -2047,6 +2422,15 @@
       <c r="K42" t="n">
         <v>3.42</v>
       </c>
+      <c r="L42" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2060,7 +2444,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.94</v>
+        <v>3</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
@@ -2072,6 +2456,15 @@
       <c r="K43" t="n">
         <v>1.94</v>
       </c>
+      <c r="L43" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.35</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2085,7 +2478,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2.2</v>
+        <v>3.36</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
@@ -2097,6 +2490,15 @@
       <c r="K44" t="n">
         <v>2.2</v>
       </c>
+      <c r="L44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2110,7 +2512,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5.97</v>
+        <v>5.9</v>
       </c>
       <c r="D45" t="n">
         <v>6.04</v>
@@ -2136,6 +2538,15 @@
       <c r="K45" t="n">
         <v>5.81</v>
       </c>
+      <c r="L45" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="N45" t="n">
+        <v>5.72</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2149,7 +2560,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.66</v>
+        <v>3.65</v>
       </c>
       <c r="D46" t="n">
         <v>3.66</v>
@@ -2175,6 +2586,15 @@
       <c r="K46" t="n">
         <v>3.68</v>
       </c>
+      <c r="L46" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.63</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2188,7 +2608,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
       </c>
       <c r="D47" t="n">
         <v>3.81</v>
@@ -2214,6 +2634,15 @@
       <c r="K47" t="n">
         <v>3.95</v>
       </c>
+      <c r="L47" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2227,7 +2656,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4.2</v>
+        <v>4.27</v>
       </c>
       <c r="D48" t="n">
         <v>4.22</v>
@@ -2253,6 +2682,15 @@
       <c r="K48" t="n">
         <v>4.18</v>
       </c>
+      <c r="L48" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4.45</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2266,7 +2704,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.74</v>
+        <v>3.88</v>
       </c>
       <c r="D49" t="n">
         <v>3.72</v>
@@ -2292,6 +2730,15 @@
       <c r="K49" t="n">
         <v>3.73</v>
       </c>
+      <c r="L49" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4.25</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2305,7 +2752,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.91</v>
+        <v>3.99</v>
       </c>
       <c r="D50" t="n">
         <v>3.9</v>
@@ -2331,6 +2778,15 @@
       <c r="K50" t="n">
         <v>3.87</v>
       </c>
+      <c r="L50" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2344,7 +2800,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4.08</v>
+        <v>4.11</v>
       </c>
       <c r="D51" t="n">
         <v>4.07</v>
@@ -2370,6 +2826,15 @@
       <c r="K51" t="n">
         <v>4.13</v>
       </c>
+      <c r="L51" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2383,7 +2848,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3.91</v>
+        <v>3.92</v>
       </c>
       <c r="D52" t="n">
         <v>3.91</v>
@@ -2408,6 +2873,15 @@
       </c>
       <c r="K52" t="n">
         <v>3.96</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3.95</v>
       </c>
     </row>
   </sheetData>
